--- a/NEW HR/MAMARIL JOSEFINA PEREY.xlsx
+++ b/NEW HR/MAMARIL JOSEFINA PEREY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>3/6-10/2023</t>
+  </si>
+  <si>
+    <t>3/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1015,7 +1018,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1082,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1142,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1208,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1271,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1369,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1428,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1493,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1536,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1611,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1797,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1863,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1921,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1987,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2043,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2118,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2161,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2227,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2283,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2731,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,7 +2892,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.554000000000002</v>
+        <v>48.804000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2899,7 +2902,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.721000000000004</v>
+        <v>62.971000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4755,20 +4758,30 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="A97" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="39">
+        <v>2</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>

--- a/NEW HR/MAMARIL JOSEFINA PEREY.xlsx
+++ b/NEW HR/MAMARIL JOSEFINA PEREY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4119DFD-7D44-4630-A583-79236153AFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -282,12 +275,15 @@
   </si>
   <si>
     <t>3/23,24/2023</t>
+  </si>
+  <si>
+    <t>3/25,26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -975,7 +971,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1018,7 +1014,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1078,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1138,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,7 +1204,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1267,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1365,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1424,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1489,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1532,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1607,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1793,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1859,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1917,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1983,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2039,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2114,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2157,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2223,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2279,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,25 +2375,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2704,7 +2700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2714,7 +2710,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2722,34 +2718,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="3696" topLeftCell="A92" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +2766,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2788,7 +2784,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2810,7 +2806,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2818,7 +2814,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2831,7 +2827,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2848,7 +2844,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2883,7 +2879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2902,12 +2898,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.971000000000004</v>
+        <v>60.971000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -2929,7 +2925,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2949,7 +2945,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2969,7 +2965,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -2989,7 +2985,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3015,7 +3011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3035,7 +3031,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3055,7 +3051,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3079,7 +3075,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>46</v>
@@ -3101,7 +3097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -3121,7 +3117,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -3145,7 +3141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>46</v>
@@ -3167,7 +3163,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43374</v>
       </c>
@@ -3187,7 +3183,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43405</v>
       </c>
@@ -3207,7 +3203,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43435</v>
       </c>
@@ -3231,7 +3227,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>54</v>
       </c>
@@ -3249,7 +3245,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43466</v>
       </c>
@@ -3269,7 +3265,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -3289,7 +3285,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
@@ -3309,7 +3305,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43556</v>
       </c>
@@ -3329,7 +3325,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -3349,7 +3345,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43617</v>
       </c>
@@ -3375,7 +3371,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43647</v>
       </c>
@@ -3401,7 +3397,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43678</v>
       </c>
@@ -3425,7 +3421,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -3449,7 +3445,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -3475,7 +3471,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>48</v>
@@ -3495,7 +3491,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>55</v>
@@ -3517,7 +3513,7 @@
         <v>43764</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43770</v>
       </c>
@@ -3537,7 +3533,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43800</v>
       </c>
@@ -3563,7 +3559,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>58</v>
@@ -3585,7 +3581,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>59</v>
@@ -3605,7 +3601,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>60</v>
       </c>
@@ -3623,7 +3619,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43831</v>
       </c>
@@ -3643,7 +3639,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43862</v>
       </c>
@@ -3667,7 +3663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>61</v>
@@ -3687,7 +3683,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>61</v>
@@ -3707,7 +3703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43891</v>
       </c>
@@ -3727,7 +3723,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43922</v>
       </c>
@@ -3747,7 +3743,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43952</v>
       </c>
@@ -3767,7 +3763,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43983</v>
       </c>
@@ -3787,7 +3783,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44013</v>
       </c>
@@ -3807,7 +3803,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44044</v>
       </c>
@@ -3827,7 +3823,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44075</v>
       </c>
@@ -3847,7 +3843,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44105</v>
       </c>
@@ -3867,7 +3863,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -3887,7 +3883,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -3913,7 +3909,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>58</v>
@@ -3935,7 +3931,7 @@
         <v>44183</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>58</v>
@@ -3957,7 +3953,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="48" t="s">
         <v>65</v>
       </c>
@@ -3975,7 +3971,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44197</v>
       </c>
@@ -3995,7 +3991,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44228</v>
       </c>
@@ -4019,7 +4015,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>58</v>
@@ -4041,7 +4037,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>46</v>
@@ -4063,7 +4059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44256</v>
       </c>
@@ -4087,7 +4083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44287</v>
       </c>
@@ -4107,7 +4103,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44317</v>
       </c>
@@ -4127,7 +4123,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44348</v>
       </c>
@@ -4147,7 +4143,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44378</v>
       </c>
@@ -4167,7 +4163,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44409</v>
       </c>
@@ -4187,7 +4183,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44440</v>
       </c>
@@ -4207,7 +4203,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44470</v>
       </c>
@@ -4227,7 +4223,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44501</v>
       </c>
@@ -4247,7 +4243,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44531</v>
       </c>
@@ -4271,7 +4267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>48</v>
@@ -4291,7 +4287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>71</v>
@@ -4313,7 +4309,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>73</v>
       </c>
@@ -4331,7 +4327,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44562</v>
       </c>
@@ -4351,7 +4347,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44593</v>
       </c>
@@ -4371,7 +4367,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -4391,7 +4387,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44652</v>
       </c>
@@ -4411,7 +4407,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44682</v>
       </c>
@@ -4431,7 +4427,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44713</v>
       </c>
@@ -4451,7 +4447,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44743</v>
       </c>
@@ -4471,7 +4467,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44774</v>
       </c>
@@ -4491,7 +4487,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44805</v>
       </c>
@@ -4517,7 +4513,7 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44835</v>
       </c>
@@ -4537,7 +4533,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44866</v>
       </c>
@@ -4557,7 +4553,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44896</v>
       </c>
@@ -4581,7 +4577,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>75</v>
@@ -4603,7 +4599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>59</v>
@@ -4623,7 +4619,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="49"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>74</v>
       </c>
@@ -4641,7 +4637,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44927</v>
       </c>
@@ -4667,7 +4663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>58</v>
@@ -4687,7 +4683,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44958</v>
       </c>
@@ -4713,7 +4709,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>58</v>
@@ -4735,7 +4731,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>58</v>
@@ -4757,7 +4753,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44986</v>
       </c>
@@ -4783,9 +4779,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
@@ -4794,13 +4792,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="39">
+        <v>2</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="K98" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45017</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4815,8 +4819,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45047</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4831,8 +4837,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45078</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4847,8 +4855,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45108</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4863,8 +4873,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45139</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4879,8 +4891,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45170</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4895,8 +4909,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45200</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4911,8 +4927,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45231</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4927,8 +4945,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45261</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4943,8 +4963,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45292</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -4959,8 +4981,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45323</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4975,8 +4999,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45352</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -4991,8 +5017,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45383</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5007,8 +5035,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>45413</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5023,8 +5053,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>45444</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5039,8 +5071,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>45474</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5055,8 +5089,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>45505</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5071,8 +5107,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>45536</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5087,8 +5125,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>45566</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5103,8 +5143,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>45597</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5119,8 +5161,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>45627</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5135,8 +5179,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>45658</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5151,8 +5197,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>45689</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5167,8 +5215,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>45717</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5183,8 +5233,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>45748</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5199,8 +5251,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>45778</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5215,7 +5269,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5231,7 +5285,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5247,7 +5301,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5263,7 +5317,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5279,7 +5333,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5295,7 +5349,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5311,7 +5365,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5327,7 +5381,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5343,21 +5397,37 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H133" s="43"/>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5374,10 +5444,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5400,28 +5470,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5434,7 +5504,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5463,7 +5533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>6.0540000000000003</v>
       </c>
@@ -5487,17 +5557,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5518,7 +5588,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5545,7 +5615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5571,7 +5641,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5597,7 +5667,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5623,7 +5693,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5649,7 +5719,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5675,7 +5745,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5701,7 +5771,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5727,7 +5797,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5747,7 +5817,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5767,7 +5837,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5787,7 +5857,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5808,7 +5878,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5829,7 +5899,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5850,7 +5920,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5871,7 +5941,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5892,7 +5962,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5913,7 +5983,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5934,7 +6004,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5955,7 +6025,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5976,7 +6046,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5997,7 +6067,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6018,7 +6088,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6039,7 +6109,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6060,7 +6130,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6081,7 +6151,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6102,7 +6172,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6123,7 +6193,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6144,7 +6214,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6165,7 +6235,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6186,7 +6256,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6207,7 +6277,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6216,7 +6286,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6225,7 +6295,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6234,7 +6304,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6243,7 +6313,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6252,7 +6322,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6261,7 +6331,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6270,7 +6340,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6279,7 +6349,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6288,7 +6358,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6297,7 +6367,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6306,7 +6376,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6315,7 +6385,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6324,7 +6394,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6333,7 +6403,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6342,7 +6412,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6351,7 +6421,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6360,7 +6430,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6369,7 +6439,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6378,7 +6448,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6387,7 +6457,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6396,7 +6466,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6405,7 +6475,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6414,7 +6484,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6423,7 +6493,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6432,7 +6502,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6441,7 +6511,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6450,7 +6520,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6459,7 +6529,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6468,7 +6538,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MAMARIL JOSEFINA PEREY.xlsx
+++ b/NEW HR/MAMARIL JOSEFINA PEREY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4119DFD-7D44-4630-A583-79236153AFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079AC428-E2C3-45E1-BAC9-BA59E7B7A242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2725,9 +2725,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A92" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
